--- a/Paper_HEx_AMR/Planejamento_Paper_IJR.xlsx
+++ b/Paper_HEx_AMR/Planejamento_Paper_IJR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Jupyter\Paper_HEx_AMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -561,7 +562,7 @@
   <dimension ref="B2:AP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E9" si="4">E7+25</f>
+        <f>E7+25</f>
         <v>120</v>
       </c>
       <c r="F8" s="2">
@@ -1084,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="4"/>
+        <f>E8+25</f>
         <v>145</v>
       </c>
       <c r="F9" s="2">
@@ -1623,7 +1624,7 @@
     </row>
     <row r="14" spans="2:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="3">
-        <f t="shared" ref="D14" si="5">D13+1</f>
+        <f>D13+1</f>
         <v>11</v>
       </c>
       <c r="E14" s="3">
@@ -1633,15 +1634,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14" si="6">(1-EXP(-H14*(1-EXP(-E14/(C$5*F14)))))/H14</f>
+        <f>(1-EXP(-H14*(1-EXP(-E14/(C$5*F14)))))/H14</f>
         <v>0.91267582268851821</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14" si="7">F14*C$5/C$3/C$4</f>
+        <f>F14*C$5/C$3/C$4</f>
         <v>0.13431013431013433</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" ref="I14" si="8">G14*H14</f>
+        <f>G14*H14</f>
         <v>0.12258161232690723</v>
       </c>
       <c r="N14" t="s">
